--- a/Weather-app-progress/colourList.xlsx
+++ b/Weather-app-progress/colourList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kit/Documents/Git repos/Personal Projects/colour-weather-app/Weather-app-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42F503-4BC9-1F4C-A234-5392CDE8201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0BFAA-3283-E14D-9BF7-50FBDA059FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="740" windowWidth="28040" windowHeight="17000" xr2:uid="{62B4FD78-F938-764C-B3A1-57B4EADC45BA}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="28040" windowHeight="17000" xr2:uid="{62B4FD78-F938-764C-B3A1-57B4EADC45BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Temp</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>yarn</t>
   </si>
 </sst>
 </file>
@@ -214,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD9750-2A35-DF44-B370-0B9C76D8A3A2}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>35</v>
       </c>
@@ -540,8 +546,14 @@
       <c r="K1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,8 +581,11 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -602,8 +617,11 @@
       <c r="K3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -635,8 +653,11 @@
       <c r="K4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -668,8 +689,11 @@
       <c r="K5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -701,8 +725,11 @@
       <c r="K6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -734,8 +761,11 @@
       <c r="K7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -767,8 +797,11 @@
       <c r="K8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -800,8 +833,11 @@
       <c r="K9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -833,8 +869,11 @@
       <c r="K10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -866,8 +905,11 @@
       <c r="K11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -899,8 +941,11 @@
       <c r="K12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -932,8 +977,11 @@
       <c r="K13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -965,8 +1013,11 @@
       <c r="K14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -998,8 +1049,11 @@
       <c r="K15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1031,8 +1085,11 @@
       <c r="K16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1064,8 +1121,11 @@
       <c r="K17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1097,8 +1157,11 @@
       <c r="K18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1130,8 +1193,11 @@
       <c r="K19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1163,8 +1229,11 @@
       <c r="K20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1196,8 +1265,11 @@
       <c r="K21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1230,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1263,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1293,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1323,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1353,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1370,22 +1442,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
